--- a/TS-04-XLS-pronostico-regresion.xlsx
+++ b/TS-04-XLS-pronostico-regresion.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JetDrive/GitHub/series-de-tiempo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="22080" windowHeight="16400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo1" sheetId="2" r:id="rId1"/>
@@ -120,9 +120,15 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -135,7 +141,7 @@
     <author>Usuario de Microsoft Office</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +165,7 @@
     <author>Usuario de Microsoft Office</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +189,7 @@
     <author>Usuario de Microsoft Office</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -411,8 +417,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,6 +464,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -495,11 +516,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -508,7 +529,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -516,17 +537,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -536,7 +557,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -544,12 +565,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,18 +579,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,7 +599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -590,20 +611,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -615,12 +627,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -662,6 +668,67 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,9 +748,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-CO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -803,7 +870,7 @@
                   <c:v>61.94</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>60.8</c:v>
@@ -815,13 +882,13 @@
                   <c:v>66.14</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>64.400000000000006</c:v>
+                  <c:v>64.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>64.040000000000006</c:v>
+                  <c:v>64.04</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>64.150000000000006</c:v>
+                  <c:v>64.15000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>65.41</c:v>
@@ -857,19 +924,19 @@
                   <c:v>71.13</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>70.239999999999995</c:v>
+                  <c:v>70.24</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>71.510000000000005</c:v>
+                  <c:v>71.51</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>71.319999999999993</c:v>
+                  <c:v>71.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2C49-41FD-B6E8-0816F8BE0638}"/>
             </c:ext>
@@ -909,130 +976,130 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>50.419616403455883</c:v>
+                  <c:v>50.41961640345588</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.921442812860775</c:v>
+                  <c:v>50.92144281286077</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.423269222265674</c:v>
+                  <c:v>51.42326922226567</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.925095631670565</c:v>
+                  <c:v>51.92509563167057</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.426922041075464</c:v>
+                  <c:v>52.42692204107546</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.928748450480363</c:v>
+                  <c:v>52.92874845048036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.430574859885255</c:v>
+                  <c:v>53.43057485988525</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.932401269290153</c:v>
+                  <c:v>53.93240126929015</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54.434227678695045</c:v>
+                  <c:v>54.43422767869504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.936054088099944</c:v>
+                  <c:v>54.93605408809994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55.437880497504835</c:v>
+                  <c:v>55.43788049750484</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55.939706906909734</c:v>
+                  <c:v>55.93970690690973</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56.441533316314633</c:v>
+                  <c:v>56.44153331631463</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56.943359725719525</c:v>
+                  <c:v>56.94335972571952</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57.445186135124423</c:v>
+                  <c:v>57.44518613512442</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>57.947012544529315</c:v>
+                  <c:v>57.94701254452931</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>58.448838953934214</c:v>
+                  <c:v>58.44883895393421</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58.950665363339112</c:v>
+                  <c:v>58.95066536333911</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>59.452491772744004</c:v>
+                  <c:v>59.452491772744</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>59.954318182148903</c:v>
+                  <c:v>59.9543181821489</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60.456144591553794</c:v>
+                  <c:v>60.45614459155379</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>60.957971000958693</c:v>
+                  <c:v>60.95797100095869</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>61.459797410363592</c:v>
+                  <c:v>61.45979741036359</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>61.961623819768484</c:v>
+                  <c:v>61.96162381976848</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62.463450229173382</c:v>
+                  <c:v>62.46345022917338</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>62.965276638578274</c:v>
+                  <c:v>62.96527663857827</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>63.467103047983173</c:v>
+                  <c:v>63.46710304798317</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>63.968929457388072</c:v>
+                  <c:v>63.96892945738807</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>64.47075586679297</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>64.972582276197855</c:v>
+                  <c:v>64.97258227619785</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>65.474408685602754</c:v>
+                  <c:v>65.47440868560275</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>65.976235095007652</c:v>
+                  <c:v>65.97623509500765</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66.478061504412551</c:v>
+                  <c:v>66.47806150441255</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>66.979887913817436</c:v>
+                  <c:v>66.97988791381744</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>67.481714323222349</c:v>
+                  <c:v>67.48171432322234</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>67.983540732627233</c:v>
+                  <c:v>67.98354073262723</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>68.485367142032132</c:v>
+                  <c:v>68.48536714203213</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>68.987193551437031</c:v>
+                  <c:v>68.98719355143703</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>69.489019960841915</c:v>
+                  <c:v>69.4890199608419</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69.990846370246828</c:v>
+                  <c:v>69.99084637024683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2C49-41FD-B6E8-0816F8BE0638}"/>
             </c:ext>
@@ -1048,11 +1115,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466467688"/>
-        <c:axId val="466463096"/>
+        <c:axId val="962501584"/>
+        <c:axId val="1072741392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="466467688"/>
+        <c:axId val="962501584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,22 +1158,22 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466463096"/>
+        <c:crossAx val="1072741392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="2"/>
-        <c:minorUnit val="10"/>
+        <c:majorUnit val="2.0"/>
+        <c:minorUnit val="10.0"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466463096"/>
+        <c:axId val="1072741392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="40"/>
+          <c:min val="40.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1152,10 +1219,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466467688"/>
+        <c:crossAx val="962501584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1193,7 +1260,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1205,9 +1272,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-CO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1225,10 +1292,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.2177701886318331E-2"/>
-          <c:y val="3.7094275279115761E-2"/>
-          <c:w val="0.92387672193461057"/>
-          <c:h val="0.85904889369488191"/>
+          <c:x val="0.0521777018863183"/>
+          <c:y val="0.0370942752791158"/>
+          <c:w val="0.923876721934611"/>
+          <c:h val="0.859048893694882"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1343,7 +1410,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9687-400E-98B3-D893CE021BDD}"/>
             </c:ext>
@@ -1383,70 +1450,70 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>12.541965312323944</c:v>
+                  <c:v>12.54196531232394</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.811969466867332</c:v>
+                  <c:v>12.81196946686733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.915955268388146</c:v>
+                  <c:v>11.91595526838815</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.759957459581653</c:v>
+                  <c:v>11.75995745958165</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.920980453797821</c:v>
+                  <c:v>12.92098045379782</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.190984608341209</c:v>
+                  <c:v>13.19098460834121</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.294970409862023</c:v>
+                  <c:v>12.29497040986202</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.138972601055531</c:v>
+                  <c:v>12.13897260105553</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>13.2999955952717</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.569999749815087</c:v>
+                  <c:v>13.56999974981509</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.673985551335901</c:v>
+                  <c:v>12.6739855513359</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12.51798774252941</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.679010736745576</c:v>
+                  <c:v>13.67901073674558</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.949014891288964</c:v>
+                  <c:v>13.94901489128896</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.053000692809778</c:v>
+                  <c:v>13.05300069280978</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.897002884003289</c:v>
+                  <c:v>12.89700288400329</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.058025878219455</c:v>
+                  <c:v>14.05802587821946</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.328030032762843</c:v>
+                  <c:v>14.32803003276284</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.432015834283655</c:v>
+                  <c:v>13.43201583428366</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.276018025477164</c:v>
+                  <c:v>13.27601802547716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9687-400E-98B3-D893CE021BDD}"/>
             </c:ext>
@@ -1462,11 +1529,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466467688"/>
-        <c:axId val="466463096"/>
+        <c:axId val="1069720240"/>
+        <c:axId val="1069849104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="466467688"/>
+        <c:axId val="1069720240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,22 +1572,22 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466463096"/>
+        <c:crossAx val="1069849104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="2"/>
-        <c:minorUnit val="10"/>
+        <c:majorUnit val="2.0"/>
+        <c:minorUnit val="10.0"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466463096"/>
+        <c:axId val="1069849104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="10"/>
+          <c:min val="10.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1566,10 +1633,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466467688"/>
+        <c:crossAx val="1069720240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1607,7 +1674,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1619,9 +1686,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-CO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1729,13 +1796,13 @@
                   <c:v>28.79</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32.869999999999997</c:v>
+                  <c:v>32.87</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.909999999999997</c:v>
+                  <c:v>35.91</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>33.799999999999997</c:v>
+                  <c:v>33.8</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>38.97</c:v>
@@ -1750,7 +1817,7 @@
                   <c:v>69.19</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>69</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>68.2</c:v>
@@ -1771,7 +1838,7 @@
                   <c:v>78.39</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>77.430000000000007</c:v>
+                  <c:v>77.43</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>76.73</c:v>
@@ -1825,7 +1892,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4388-4FB9-BC8F-BF7F9C3EC5EA}"/>
             </c:ext>
@@ -1865,160 +1932,160 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>14.606845803558985</c:v>
+                  <c:v>14.60684580355898</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15.58504218212588</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.563238560692778</c:v>
+                  <c:v>16.56323856069278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.541434939259673</c:v>
+                  <c:v>17.54143493925967</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.519631317826569</c:v>
+                  <c:v>18.51963131782657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.497827696393465</c:v>
+                  <c:v>19.49782769639346</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>20.47602407496036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.454220453527256</c:v>
+                  <c:v>21.45422045352726</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.432416832094152</c:v>
+                  <c:v>22.43241683209415</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.410613210661047</c:v>
+                  <c:v>23.41061321066105</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.388809589227943</c:v>
+                  <c:v>24.38880958922794</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.367005967794839</c:v>
+                  <c:v>25.36700596779484</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.345202346361734</c:v>
+                  <c:v>26.34520234636173</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>27.32339872492863</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.301595103495526</c:v>
+                  <c:v>28.30159510349552</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.279791482062421</c:v>
+                  <c:v>29.27979148206242</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30.257987860629321</c:v>
+                  <c:v>30.25798786062932</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31.236184239196213</c:v>
+                  <c:v>31.23618423919621</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.214380617763112</c:v>
+                  <c:v>32.21438061776311</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33.192576996330004</c:v>
+                  <c:v>33.19257699633</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.170773374896903</c:v>
+                  <c:v>34.1707733748969</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35.148969753463795</c:v>
+                  <c:v>35.1489697534638</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>36.127166132030695</c:v>
+                  <c:v>36.1271661320307</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37.105362510597587</c:v>
+                  <c:v>37.10536251059759</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>38.083558889164486</c:v>
+                  <c:v>38.08355888916449</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>70.020397687856985</c:v>
+                  <c:v>70.02039768785698</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>70.998594066423891</c:v>
+                  <c:v>70.99859406642389</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>71.976790444990783</c:v>
+                  <c:v>71.97679044499078</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>72.954986823557675</c:v>
+                  <c:v>72.95498682355768</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>73.933183202124582</c:v>
+                  <c:v>73.93318320212458</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>74.911379580691474</c:v>
+                  <c:v>74.91137958069147</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>75.889575959258366</c:v>
+                  <c:v>75.88957595925837</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>76.867772337825272</c:v>
+                  <c:v>76.86777233782527</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>77.845968716392164</c:v>
+                  <c:v>77.84596871639216</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>78.824165094959056</c:v>
+                  <c:v>78.82416509495905</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>79.802361473525963</c:v>
+                  <c:v>79.80236147352596</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>80.780557852092841</c:v>
+                  <c:v>80.78055785209284</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>81.758754230659747</c:v>
+                  <c:v>81.75875423065975</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>82.736950609226639</c:v>
+                  <c:v>82.73695060922663</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>83.715146987793531</c:v>
+                  <c:v>83.71514698779353</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>84.693343366360438</c:v>
+                  <c:v>84.69334336636044</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>85.67153974492733</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>86.649736123494222</c:v>
+                  <c:v>86.64973612349422</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>87.627932502061128</c:v>
+                  <c:v>87.62793250206113</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>88.606128880628006</c:v>
+                  <c:v>88.60612888062801</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>89.584325259194912</c:v>
+                  <c:v>89.58432525919491</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>90.562521637761805</c:v>
+                  <c:v>90.5625216377618</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>91.540718016328697</c:v>
+                  <c:v>91.5407180163287</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>92.518914394895603</c:v>
+                  <c:v>92.5189143948956</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>93.497110773462495</c:v>
+                  <c:v>93.4971107734625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4388-4FB9-BC8F-BF7F9C3EC5EA}"/>
             </c:ext>
@@ -2034,11 +2101,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466467688"/>
-        <c:axId val="466463096"/>
+        <c:axId val="1108652960"/>
+        <c:axId val="1108653904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="466467688"/>
+        <c:axId val="1108652960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,22 +2144,22 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466463096"/>
+        <c:crossAx val="1108653904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="2"/>
-        <c:minorUnit val="10"/>
+        <c:majorUnit val="2.0"/>
+        <c:minorUnit val="10.0"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466463096"/>
+        <c:axId val="1108653904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2138,10 +2205,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466467688"/>
+        <c:crossAx val="1108652960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2179,7 +2246,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4254,1133 +4321,1136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="6" width="11.42578125" style="4"/>
-    <col min="8" max="9" width="11.42578125" style="4"/>
-    <col min="10" max="10" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="4.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="26" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" style="29"/>
+    <col min="7" max="7" width="10.83203125" style="46"/>
+    <col min="8" max="9" width="10.83203125" style="29"/>
+    <col min="10" max="10" width="13.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="31">
         <v>49.917789994050985</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="33">
         <v>51.74</v>
       </c>
-      <c r="D2" s="13">
-        <f t="shared" ref="D2:D41" si="0">+beta0+beta1*A2</f>
+      <c r="D2" s="34">
+        <f>+beta0+beta1*A2</f>
         <v>50.419616403455883</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="34">
         <f>+C2-D2</f>
         <v>1.3203835965441186</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="34">
         <f>+E2^2</f>
         <v>1.7434128420227819</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="31">
         <v>0.50182640940489587</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="33">
         <v>48.92</v>
       </c>
-      <c r="D3" s="13">
-        <f t="shared" si="0"/>
+      <c r="D3" s="34">
+        <f t="shared" ref="D2:D41" si="0">+beta0+beta1*A3</f>
         <v>50.921442812860775</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="34">
         <f t="shared" ref="E3:E41" si="1">+C3-D3</f>
         <v>-2.0014428128607733</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="34">
         <f t="shared" ref="F3:F41" si="2">+E3^2</f>
         <v>4.0057733331520442</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="7"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="33">
         <v>52.12</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="34">
         <f t="shared" si="0"/>
         <v>51.423269222265674</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="34">
         <f t="shared" si="1"/>
         <v>0.69673077773432368</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="34">
         <f t="shared" si="2"/>
         <v>0.48543377664227555</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="I4" s="6"/>
+      <c r="G4" s="29"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="33">
         <v>51.9</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="34">
         <f t="shared" si="0"/>
         <v>51.925095631670565</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="34">
         <f t="shared" si="1"/>
         <v>-2.5095631670566831E-2</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="34">
         <f t="shared" si="2"/>
         <v>6.2979072894475696E-4</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="29"/>
+      <c r="H5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="35">
         <f>+SUM(F2:F41)</f>
         <v>43.701416983849818</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="33">
         <v>50.88</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="34">
         <f t="shared" si="0"/>
         <v>52.426922041075464</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="34">
         <f t="shared" si="1"/>
         <v>-1.5469220410754616</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="34">
         <f t="shared" si="2"/>
         <v>2.3929678011650721</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="33">
         <v>52.52</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="34">
         <f t="shared" si="0"/>
         <v>52.928748450480363</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="34">
         <f t="shared" si="1"/>
         <v>-0.40874845048035979</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="34">
         <f t="shared" si="2"/>
         <v>0.16707529577009514</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="33">
         <v>52.5</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="34">
         <f t="shared" si="0"/>
         <v>53.430574859885255</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="34">
         <f t="shared" si="1"/>
         <v>-0.93057485988525457</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="34">
         <f t="shared" si="2"/>
         <v>0.86596956985046114</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="33">
         <v>55.05</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="34">
         <f t="shared" si="0"/>
         <v>53.932401269290153</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="34">
         <f t="shared" si="1"/>
         <v>1.1175987307098438</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="34">
         <f t="shared" si="2"/>
         <v>1.2490269228842541</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="33">
         <v>56.73</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="34">
         <f t="shared" si="0"/>
         <v>54.434227678695045</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="34">
         <f t="shared" si="1"/>
         <v>2.2957723213049519</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="34">
         <f t="shared" si="2"/>
         <v>5.2705705512699277</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="33">
         <v>55.05</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="34">
         <f t="shared" si="0"/>
         <v>54.936054088099944</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="34">
         <f t="shared" si="1"/>
         <v>0.11394591190005343</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="34">
         <f t="shared" si="2"/>
         <v>1.2983670838734739E-2</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="33">
         <v>56.85</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="34">
         <f t="shared" si="0"/>
         <v>55.437880497504835</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="34">
         <f t="shared" si="1"/>
         <v>1.412119502495166</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="34">
         <f t="shared" si="2"/>
         <v>1.9940814893271952</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="33">
         <v>55.29</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="34">
         <f t="shared" si="0"/>
         <v>55.939706906909734</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="34">
         <f t="shared" si="1"/>
         <v>-0.64970690690973498</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="34">
         <f t="shared" si="2"/>
         <v>0.42211906488621503</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="33">
         <v>55.7</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="34">
         <f t="shared" si="0"/>
         <v>56.441533316314633</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="34">
         <f t="shared" si="1"/>
         <v>-0.74153331631463004</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="34">
         <f t="shared" si="2"/>
         <v>0.54987165920457315</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="33">
         <v>56.72</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="34">
         <f t="shared" si="0"/>
         <v>56.943359725719525</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="34">
         <f t="shared" si="1"/>
         <v>-0.22335972571952567</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="34">
         <f t="shared" si="2"/>
         <v>4.9889567073501735E-2</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="33">
         <v>56.56</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="34">
         <f t="shared" si="0"/>
         <v>57.445186135124423</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="34">
         <f t="shared" si="1"/>
         <v>-0.88518613512442101</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="34">
         <f t="shared" si="2"/>
         <v>0.78355449381650977</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="33">
         <v>57.85</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="34">
         <f t="shared" si="0"/>
         <v>57.947012544529315</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="34">
         <f t="shared" si="1"/>
         <v>-9.7012544529313516E-2</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="34">
         <f t="shared" si="2"/>
         <v>9.4114337960520371E-3</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="26">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="33">
         <v>58.67</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="34">
         <f t="shared" si="0"/>
         <v>58.448838953934214</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="34">
         <f t="shared" si="1"/>
         <v>0.22116104606578801</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="34">
         <f t="shared" si="2"/>
         <v>4.891220829691361E-2</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="26">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="33">
         <v>59.59</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="34">
         <f t="shared" si="0"/>
         <v>58.950665363339112</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="34">
         <f t="shared" si="1"/>
         <v>0.63933463666089096</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="34">
         <f t="shared" si="2"/>
         <v>0.40874877763431344</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="26">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="33">
         <v>57.61</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="34">
         <f t="shared" si="0"/>
         <v>59.452491772744004</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="34">
         <f t="shared" si="1"/>
         <v>-1.8424917727440047</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="34">
         <f t="shared" si="2"/>
         <v>3.394775932629345</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="26">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="33">
         <v>60.15</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="34">
         <f t="shared" si="0"/>
         <v>59.954318182148903</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="34">
         <f t="shared" si="1"/>
         <v>0.19568181785109573</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="34">
         <f t="shared" si="2"/>
         <v>3.8291373837509406E-2</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="26">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="33">
         <v>60.97</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="34">
         <f t="shared" si="0"/>
         <v>60.456144591553794</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="34">
         <f t="shared" si="1"/>
         <v>0.51385540844620436</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="34">
         <f t="shared" si="2"/>
         <v>0.26404738078941553</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="26">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="33">
         <v>61.47</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="34">
         <f t="shared" si="0"/>
         <v>60.957971000958693</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="34">
         <f t="shared" si="1"/>
         <v>0.51202899904130561</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="34">
         <f t="shared" si="2"/>
         <v>0.26217369585924133</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="26">
         <v>23</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="33">
         <v>61.94</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="34">
         <f t="shared" si="0"/>
         <v>61.459797410363592</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="34">
         <f t="shared" si="1"/>
         <v>0.48020258963640572</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="34">
         <f t="shared" si="2"/>
         <v>0.23059452709351028</v>
       </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="33">
         <v>63</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="34">
         <f t="shared" si="0"/>
         <v>61.961623819768484</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="34">
         <f t="shared" si="1"/>
         <v>1.0383761802315163</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="34">
         <f t="shared" si="2"/>
         <v>1.0782250916721945</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="26">
         <v>25</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="33">
         <v>60.8</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="34">
         <f t="shared" si="0"/>
         <v>62.463450229173382</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="34">
         <f t="shared" si="1"/>
         <v>-1.6634502291733853</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="34">
         <f t="shared" si="2"/>
         <v>2.7670666649369879</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="22" t="s">
+      <c r="G26" s="29"/>
+      <c r="H26" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="24"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="26">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="33">
         <v>62.67</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="34">
         <f t="shared" si="0"/>
         <v>62.965276638578274</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="34">
         <f t="shared" si="1"/>
         <v>-0.29527663857827235</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="34">
         <f t="shared" si="2"/>
         <v>8.7188293290083679E-2</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27"/>
-    </row>
-    <row r="28" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="G27" s="29"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="41"/>
+    </row>
+    <row r="28" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26">
         <v>27</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="33">
         <v>66.14</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="34">
         <f t="shared" si="0"/>
         <v>63.467103047983173</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="34">
         <f t="shared" si="1"/>
         <v>2.6728969520168278</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="34">
         <f t="shared" si="2"/>
         <v>7.1443781161008477</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="26">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="33">
         <v>64.400000000000006</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="34">
         <f t="shared" si="0"/>
         <v>63.968929457388072</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="34">
         <f t="shared" si="1"/>
         <v>0.43107054261193412</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="34">
         <f t="shared" si="2"/>
         <v>0.18582181270774731</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="26">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="33">
         <v>64.040000000000006</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="34">
         <f t="shared" si="0"/>
         <v>64.47075586679297</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="34">
         <f t="shared" si="1"/>
         <v>-0.43075586679296407</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="34">
         <f t="shared" si="2"/>
         <v>0.18555061677655782</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="26">
         <v>30</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="33">
         <v>64.150000000000006</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="34">
         <f t="shared" si="0"/>
         <v>64.972582276197855</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="34">
         <f t="shared" si="1"/>
         <v>-0.82258227619784918</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="34">
         <f t="shared" si="2"/>
         <v>0.67664160111483462</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="26">
         <v>31</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="33">
         <v>65.41</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="34">
         <f t="shared" si="0"/>
         <v>65.474408685602754</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="34">
         <f t="shared" si="1"/>
         <v>-6.4408685602757032E-2</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="34">
         <f t="shared" si="2"/>
         <v>4.1484787810748009E-3</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="29"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="26">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="33">
         <v>65.47</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="34">
         <f t="shared" si="0"/>
         <v>65.976235095007652</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="34">
         <f t="shared" si="1"/>
         <v>-0.50623509500765351</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="34">
         <f t="shared" si="2"/>
         <v>0.25627397141740799</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="26">
         <v>33</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="33">
         <v>66.25</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="34">
         <f t="shared" si="0"/>
         <v>66.478061504412551</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="34">
         <f t="shared" si="1"/>
         <v>-0.22806150441255113</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="34">
         <f t="shared" si="2"/>
         <v>5.2012049794916082E-2</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="29"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="26">
         <v>34</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="33">
         <v>67.86</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="34">
         <f t="shared" si="0"/>
         <v>66.979887913817436</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="34">
         <f t="shared" si="1"/>
         <v>0.88011208618256376</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="34">
         <f t="shared" si="2"/>
         <v>0.77459728424462448</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="29"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="26">
         <v>35</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="33">
         <v>65.97</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="34">
         <f t="shared" si="0"/>
         <v>67.481714323222349</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="34">
         <f t="shared" si="1"/>
         <v>-1.5117143232223498</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="34">
         <f t="shared" si="2"/>
         <v>2.285280195035607</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="26">
         <v>36</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="33">
         <v>67.52</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="34">
         <f t="shared" si="0"/>
         <v>67.983540732627233</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="34">
         <f t="shared" si="1"/>
         <v>-0.46354073262723716</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="34">
         <f t="shared" si="2"/>
         <v>0.21487001080459578</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="26">
         <v>37</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="33">
         <v>69.25</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="34">
         <f t="shared" si="0"/>
         <v>68.485367142032132</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="34">
         <f t="shared" si="1"/>
         <v>0.76463285796786806</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="34">
         <f t="shared" si="2"/>
         <v>0.58466340748410994</v>
       </c>
-      <c r="G38" s="4"/>
+      <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="26">
         <v>38</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="33">
         <v>67.81</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="34">
         <f t="shared" si="0"/>
         <v>68.987193551437031</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="34">
         <f t="shared" si="1"/>
         <v>-1.1771935514370284</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="34">
         <f t="shared" si="2"/>
         <v>1.3857846575449237</v>
       </c>
-      <c r="G39" s="4"/>
+      <c r="G39" s="29"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40" s="26">
         <v>39</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="33">
         <v>69.53</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="34">
         <f t="shared" si="0"/>
         <v>69.489019960841915</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="34">
         <f t="shared" si="1"/>
         <v>4.0980039158085901E-2</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="34">
         <f t="shared" si="2"/>
         <v>1.6793636093982538E-3</v>
       </c>
-      <c r="G40" s="4"/>
+      <c r="G40" s="29"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41" s="26">
         <v>40</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="33">
         <v>71.16</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="34">
         <f t="shared" si="0"/>
         <v>69.990846370246828</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="34">
         <f t="shared" si="1"/>
         <v>1.1691536297531684</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="34">
         <f t="shared" si="2"/>
         <v>1.3669202099650088</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="29"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42" s="26">
         <v>41</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="33">
         <v>71.13</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="4"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="29"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43" s="26">
         <v>42</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="33">
         <v>70.239999999999995</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="4"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44" s="26">
         <v>43</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="33">
         <v>71.510000000000005</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="4"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="29"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45" s="26">
         <v>44</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="33">
         <v>71.319999999999993</v>
       </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="4"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="29"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="5"/>
-      <c r="C46"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="4"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="29"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-      <c r="C47"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="4"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="29"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="9"/>
+      <c r="B52" s="47"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="B53" s="29"/>
+      <c r="G53" s="29"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="B54" s="29"/>
+      <c r="G54" s="29"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="4"/>
-      <c r="G56" s="4"/>
+      <c r="B56" s="29"/>
+      <c r="G56" s="29"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G57" s="4"/>
+      <c r="G57" s="29"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G58" s="4"/>
+      <c r="G58" s="29"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G59" s="4"/>
+      <c r="G59" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5396,677 +5466,680 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="4"/>
-    <col min="4" max="4" width="16.85546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="4"/>
-    <col min="8" max="9" width="11.42578125" style="4"/>
-    <col min="10" max="10" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="4.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="26" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="29"/>
+    <col min="4" max="4" width="16.83203125" style="29" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="29"/>
+    <col min="7" max="7" width="10.83203125" style="46"/>
+    <col min="8" max="9" width="10.83203125" style="29"/>
+    <col min="10" max="10" width="13.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="31">
         <v>0.49486776054387638</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="33">
         <v>12.82</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="34">
         <f>+beta0+beta1*A2+I1</f>
         <v>12.541965312323944</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="34">
         <f t="shared" ref="E2:E21" si="0">+C2-D2</f>
         <v>0.27803468767605644</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="34">
         <f>+E2^2</f>
         <v>7.7303287551122243E-2</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="16" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="31">
         <v>0.67011812971879459</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="33">
         <v>13.03</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="34">
         <f>+beta0+beta1*A3+I2</f>
         <v>12.811969466867332</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="34">
         <f t="shared" si="0"/>
         <v>0.21803053313266751</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="34">
         <f t="shared" ref="F3:F21" si="1">+E3^2</f>
         <v>4.7537313378115224E-2</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="16" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="31">
         <v>-0.32064985412886082</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="33">
         <v>11.58</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="34">
         <f>+beta0+beta1*A4+I3</f>
         <v>11.915955268388146</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="34">
         <f t="shared" si="0"/>
         <v>-0.33595526838814571</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="34">
         <f t="shared" si="1"/>
         <v>0.11286594235775102</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="29"/>
+      <c r="H4" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="31">
         <v>-0.57140144830382145</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="33">
         <v>11.77</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="34">
         <f>+beta0+beta1*A5+I4</f>
         <v>11.759957459581653</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="34">
         <f t="shared" si="0"/>
         <v>1.0042540418346846E-2</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="34">
         <f t="shared" si="1"/>
         <v>1.0085261805413004E-4</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="29"/>
+      <c r="H5" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="31">
         <v>11.952343766411598</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="33">
         <v>12.84</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="34">
         <f>+beta0+beta1*A6+I1</f>
         <v>12.920980453797821</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="34">
         <f t="shared" si="0"/>
         <v>-8.0980453797820928E-2</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="34">
         <f t="shared" si="1"/>
         <v>6.5578338973010103E-3</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="31">
         <v>9.4753785368469443E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="33">
         <v>13.07</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="34">
         <f>+beta0+beta1*A7+I2</f>
         <v>13.190984608341209</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="34">
         <f t="shared" si="0"/>
         <v>-0.1209846083412085</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="34">
         <f t="shared" si="1"/>
         <v>1.4637275455475617E-2</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="33">
         <v>12.36</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="34">
         <f>+beta0+beta1*A8+I3</f>
         <v>12.294970409862023</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="34">
         <f t="shared" si="0"/>
         <v>6.5029590137976712E-2</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="34">
         <f t="shared" si="1"/>
         <v>4.2288475935132377E-3</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="I8" s="6"/>
+      <c r="G8" s="29"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="33">
         <v>12.14</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="34">
         <f>+beta0+beta1*A9+I4</f>
         <v>12.138972601055531</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="34">
         <f t="shared" si="0"/>
         <v>1.0273989444691267E-3</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="34">
         <f t="shared" si="1"/>
         <v>1.0555485910962757E-6</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="29"/>
+      <c r="H9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="35">
         <f>+SUM(F2:F21)</f>
         <v>0.81116001106293645</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="33">
         <v>12.96</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="34">
         <f>+beta0+beta1*A10+I1</f>
         <v>13.2999955952717</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="34">
         <f t="shared" si="0"/>
         <v>-0.33999559527169865</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="34">
         <f t="shared" si="1"/>
         <v>0.11559700480415672</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="33">
         <v>13.63</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="34">
         <f>+beta0+beta1*A11+I2</f>
         <v>13.569999749815087</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="34">
         <f t="shared" si="0"/>
         <v>6.0000250184913284E-2</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="34">
         <f t="shared" si="1"/>
         <v>3.6000300222521868E-3</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="33">
         <v>12.83</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="34">
         <f>+beta0+beta1*A12+I3</f>
         <v>12.673985551335901</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="34">
         <f t="shared" si="0"/>
         <v>0.15601444866409864</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="34">
         <f t="shared" si="1"/>
         <v>2.4340508191962668E-2</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="33">
         <v>12.16</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="34">
         <f>+beta0+beta1*A13+I4</f>
         <v>12.51798774252941</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="34">
         <f t="shared" si="0"/>
         <v>-0.35798774252941001</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="34">
         <f t="shared" si="1"/>
         <v>0.12815522380130315</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="33">
         <v>13.98</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="34">
         <f>+beta0+beta1*A14+I1</f>
         <v>13.679010736745576</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="34">
         <f t="shared" si="0"/>
         <v>0.30098926325442399</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="34">
         <f t="shared" si="1"/>
         <v>9.0594536594440944E-2</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="33">
         <v>13.88</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="34">
         <f>+beta0+beta1*A15+I2</f>
         <v>13.949014891288964</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="34">
         <f t="shared" si="0"/>
         <v>-6.9014891288963653E-2</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="34">
         <f t="shared" si="1"/>
         <v>4.7630552196274711E-3</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="33">
         <v>13.14</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="34">
         <f>+beta0+beta1*A16+I3</f>
         <v>13.053000692809778</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="34">
         <f t="shared" si="0"/>
         <v>8.6999307190222197E-2</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="34">
         <f t="shared" si="1"/>
         <v>7.5688794515786475E-3</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="33">
         <v>13.27</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="34">
         <f>+beta0+beta1*A17+I4</f>
         <v>12.897002884003289</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="34">
         <f t="shared" si="0"/>
         <v>0.3729971159967107</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="34">
         <f t="shared" si="1"/>
         <v>0.13912684854186366</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="26">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="33">
         <v>13.9</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="34">
         <f>+beta0+beta1*A18+I1</f>
         <v>14.058025878219455</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="34">
         <f t="shared" si="0"/>
         <v>-0.1580258782194548</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="34">
         <f t="shared" si="1"/>
         <v>2.4972178187029959E-2</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="26">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="33">
         <v>14.24</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="34">
         <f>+beta0+beta1*A19+I2</f>
         <v>14.328030032762843</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="34">
         <f t="shared" si="0"/>
         <v>-8.8030032762842936E-2</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="34">
         <f t="shared" si="1"/>
         <v>7.7492866682272003E-3</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="26">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="33">
         <v>13.46</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="34">
         <f>+beta0+beta1*A20+I3</f>
         <v>13.432015834283655</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="34">
         <f t="shared" si="0"/>
         <v>2.7984165716345544E-2</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="34">
         <f t="shared" si="1"/>
         <v>7.8311353083988929E-4</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="26">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="33">
         <v>13.25</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="34">
         <f>+beta0+beta1*A21+I4</f>
         <v>13.276018025477164</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="34">
         <f t="shared" si="0"/>
         <v>-2.6018025477164031E-2</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="34">
         <f t="shared" si="1"/>
         <v>6.7693764973035661E-4</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="26">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="48">
         <v>14.54</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="4"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="26">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="48">
         <v>14.45</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="4"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="26">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="48">
         <v>14.08</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="4"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="26">
         <v>24</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="48">
         <v>13.83</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="C26"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="4"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="32"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+    </row>
+    <row r="29" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
+      <c r="B31" s="47"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="B32" s="29"/>
+      <c r="G32" s="29"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="B33" s="29"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="B35" s="29"/>
+      <c r="G35" s="29"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G36" s="4"/>
+      <c r="G36" s="29"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G37" s="4"/>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G38" s="4"/>
+      <c r="G38" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6084,17 +6157,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="6" width="11.42578125" style="4"/>
-    <col min="8" max="9" width="11.42578125" style="4"/>
-    <col min="10" max="10" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" style="4"/>
+    <col min="8" max="9" width="10.83203125" style="4"/>
+    <col min="10" max="10" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6114,1269 +6187,1269 @@
         <v>4</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>65</v>
       </c>
       <c r="I1" s="4">
         <v>30.958642420125614</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="9">
         <v>11.6</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <f t="shared" ref="D2:D26" si="0">+beta0+beta1*A2</f>
         <v>14.606845803558985</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <f>+C2-D2</f>
         <v>-3.0068458035589849</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <f>+E2^2</f>
         <v>9.0411216863802775</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>13.628649424992089</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="9">
         <v>16.04</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <f t="shared" si="0"/>
         <v>15.58504218212588</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <f t="shared" ref="E3:E51" si="1">+C3-D3</f>
         <v>0.45495781787411893</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <f t="shared" ref="F3:F51" si="2">+E3^2</f>
         <v>0.20698661604477997</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>0.97819637856689579</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>21.99</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <f t="shared" si="0"/>
         <v>16.563238560692778</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <f t="shared" si="1"/>
         <v>5.4267614393072208</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <f t="shared" si="2"/>
         <v>29.449739719151779</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>16.29</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <f t="shared" si="0"/>
         <v>17.541434939259673</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <f t="shared" si="1"/>
         <v>-1.2514349392596742</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <f t="shared" si="2"/>
         <v>1.5660894071998643</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f>+SUM(F2:F47)</f>
         <v>204.00679197594846</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>24.5</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <f t="shared" si="0"/>
         <v>18.519631317826569</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <f t="shared" si="1"/>
         <v>5.980368682173431</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <f t="shared" si="2"/>
         <v>35.764809574720779</v>
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>18.57</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <f t="shared" si="0"/>
         <v>19.497827696393465</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <f t="shared" si="1"/>
         <v>-0.92782769639346441</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <f t="shared" si="2"/>
         <v>0.86086423419480274</v>
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>20.69</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
         <v>20.47602407496036</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <f t="shared" si="1"/>
         <v>0.21397592503964091</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="10">
         <f t="shared" si="2"/>
         <v>4.5785696496570029E-2</v>
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <v>18.46</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
         <v>21.454220453527256</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <f t="shared" si="1"/>
         <v>-2.9942204535272552</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <f t="shared" si="2"/>
         <v>8.9653561243209623</v>
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>22.41</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <f t="shared" si="0"/>
         <v>22.432416832094152</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <f t="shared" si="1"/>
         <v>-2.2416832094151573E-2</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <f t="shared" si="2"/>
         <v>5.0251436113738402E-4</v>
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>23.6</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <f t="shared" si="0"/>
         <v>23.410613210661047</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <f t="shared" si="1"/>
         <v>0.18938678933895403</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="10">
         <f t="shared" si="2"/>
         <v>3.586735597611735E-2</v>
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <v>21.98</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="10">
         <f t="shared" si="0"/>
         <v>24.388809589227943</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <f t="shared" si="1"/>
         <v>-2.4088095892279426</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="10">
         <f t="shared" si="2"/>
         <v>5.80236363715649</v>
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="9">
         <v>28.47</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <f t="shared" si="0"/>
         <v>25.367005967794839</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <f t="shared" si="1"/>
         <v>3.1029940322051601</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="10">
         <f t="shared" si="2"/>
         <v>9.6285719639008391</v>
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="9">
         <v>26.74</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="10">
         <f t="shared" si="0"/>
         <v>26.345202346361734</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="10">
         <f t="shared" si="1"/>
         <v>0.39479765363826402</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="10">
         <f t="shared" si="2"/>
         <v>0.1558651873182787</v>
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="9">
         <v>25.46</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="10">
         <f t="shared" si="0"/>
         <v>27.32339872492863</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="10">
         <f t="shared" si="1"/>
         <v>-1.8633987249286292</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="10">
         <f t="shared" si="2"/>
         <v>3.4722548080656415</v>
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="9">
         <v>27.67</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <f t="shared" si="0"/>
         <v>28.301595103495526</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="10">
         <f t="shared" si="1"/>
         <v>-0.63159510349552406</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="10">
         <f t="shared" si="2"/>
         <v>0.39891237475952174</v>
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="9">
         <v>28.8</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="10">
         <f t="shared" si="0"/>
         <v>29.279791482062421</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="10">
         <f t="shared" si="1"/>
         <v>-0.47979148206242073</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <f t="shared" si="2"/>
         <v>0.23019986625965419</v>
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="9">
         <v>27.2</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="10">
         <f t="shared" si="0"/>
         <v>30.257987860629321</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="10">
         <f t="shared" si="1"/>
         <v>-3.0579878606293214</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="10">
         <f t="shared" si="2"/>
         <v>9.3512897557562944</v>
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="9">
         <v>31.74</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="10">
         <f t="shared" si="0"/>
         <v>31.236184239196213</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="10">
         <f t="shared" si="1"/>
         <v>0.50381576080378565</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="10">
         <f t="shared" si="2"/>
         <v>0.25383032083429735</v>
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="9">
         <v>28.79</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="10">
         <f t="shared" si="0"/>
         <v>32.214380617763112</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="10">
         <f t="shared" si="1"/>
         <v>-3.4243806177631129</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="10">
         <f t="shared" si="2"/>
         <v>11.726382615311678</v>
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="9">
         <v>32.869999999999997</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="10">
         <f t="shared" si="0"/>
         <v>33.192576996330004</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="10">
         <f t="shared" si="1"/>
         <v>-0.32257699633000669</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="10">
         <f t="shared" si="2"/>
         <v>0.10405591856128915</v>
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="9">
         <v>35.909999999999997</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="10">
         <f t="shared" si="0"/>
         <v>34.170773374896903</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="10">
         <f t="shared" si="1"/>
         <v>1.7392266251030932</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="10">
         <f t="shared" si="2"/>
         <v>3.0249092534674955</v>
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="9">
         <v>33.799999999999997</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="10">
         <f t="shared" si="0"/>
         <v>35.148969753463795</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="10">
         <f t="shared" si="1"/>
         <v>-1.3489697534637983</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="10">
         <f t="shared" si="2"/>
         <v>1.8197193957601809</v>
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="9">
         <v>38.97</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="10">
         <f t="shared" si="0"/>
         <v>36.127166132030695</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="10">
         <f t="shared" si="1"/>
         <v>2.8428338679693042</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="10">
         <f t="shared" si="2"/>
         <v>8.0817044008733152</v>
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="9">
         <v>36.69</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="10">
         <f t="shared" si="0"/>
         <v>37.105362510597587</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="10">
         <f t="shared" si="1"/>
         <v>-0.41536251059758911</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="10">
         <f t="shared" si="2"/>
         <v>0.17252601520993233</v>
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="9">
         <v>39.39</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="10">
         <f t="shared" si="0"/>
         <v>38.083558889164486</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="10">
         <f t="shared" si="1"/>
         <v>1.3064411108355145</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="10">
         <f t="shared" si="2"/>
         <v>1.7067883760811331</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="19"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="11">
         <v>69.19</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="14">
         <f t="shared" ref="D27:D51" si="3">+beta0+beta1*A27+cb</f>
         <v>70.020397687856985</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="14">
         <f t="shared" si="1"/>
         <v>-0.83039768785698698</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="14">
         <f t="shared" si="2"/>
         <v>0.68956031999822998</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="27"/>
-    </row>
-    <row r="28" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17">
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="11">
         <v>69</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="14">
         <f t="shared" si="3"/>
         <v>70.998594066423891</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="14">
         <f t="shared" si="1"/>
         <v>-1.998594066423891</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="14">
         <f t="shared" si="2"/>
         <v>3.9943782423447844</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="30"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="11">
         <v>68.2</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="14">
         <f t="shared" si="3"/>
         <v>71.976790444990783</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="14">
         <f t="shared" si="1"/>
         <v>-3.7767904449907803</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="14">
         <f t="shared" si="2"/>
         <v>14.264146065373657</v>
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="11">
         <v>73.84</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="14">
         <f t="shared" si="3"/>
         <v>72.954986823557675</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="14">
         <f t="shared" si="1"/>
         <v>0.88501317644232813</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="14">
         <f t="shared" si="2"/>
         <v>0.78324832247653942</v>
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="11">
         <v>77.81</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="14">
         <f t="shared" si="3"/>
         <v>73.933183202124582</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="14">
         <f t="shared" si="1"/>
         <v>3.8768167978754207</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="14">
         <f t="shared" si="2"/>
         <v>15.02970848428903</v>
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="11">
         <v>74.44</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="14">
         <f t="shared" si="3"/>
         <v>74.911379580691474</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="14">
         <f t="shared" si="1"/>
         <v>-0.47137958069147601</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="14">
         <f t="shared" si="2"/>
         <v>0.22219870909287173</v>
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="11">
         <v>75.23</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="14">
         <f t="shared" si="3"/>
         <v>75.889575959258366</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="14">
         <f t="shared" si="1"/>
         <v>-0.65957595925836188</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="14">
         <f t="shared" si="2"/>
         <v>0.43504044603158826</v>
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="11">
         <v>78.39</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="14">
         <f t="shared" si="3"/>
         <v>76.867772337825272</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="14">
         <f t="shared" si="1"/>
         <v>1.5222276621747284</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="14">
         <f t="shared" si="2"/>
         <v>2.3171770554899389</v>
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
         <v>34</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="11">
         <v>77.430000000000007</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="14">
         <f t="shared" si="3"/>
         <v>77.845968716392164</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="14">
         <f t="shared" si="1"/>
         <v>-0.41596871639215749</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="14">
         <f t="shared" si="2"/>
         <v>0.17302997301693915</v>
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="11">
         <v>76.73</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="14">
         <f t="shared" si="3"/>
         <v>78.824165094959056</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="14">
         <f t="shared" si="1"/>
         <v>-2.0941650949590525</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="14">
         <f t="shared" si="2"/>
         <v>4.3855274449448576</v>
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
         <v>36</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="11">
         <v>82.6</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="14">
         <f t="shared" si="3"/>
         <v>79.802361473525963</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="14">
         <f t="shared" si="1"/>
         <v>2.7976385264740316</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="14">
         <f t="shared" si="2"/>
         <v>7.8267813248117903</v>
       </c>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
         <v>37</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="11">
         <v>80.22</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="14">
         <f t="shared" si="3"/>
         <v>80.780557852092841</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="14">
         <f t="shared" si="1"/>
         <v>-0.56055785209284181</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="14">
         <f t="shared" si="2"/>
         <v>0.31422510554294031</v>
       </c>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="12">
         <v>38</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="11">
         <v>83.32</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="14">
         <f t="shared" si="3"/>
         <v>81.758754230659747</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="14">
         <f t="shared" si="1"/>
         <v>1.5612457693402462</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="14">
         <f t="shared" si="2"/>
         <v>2.4374883522828172</v>
       </c>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="12">
         <v>39</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="11">
         <v>82.74</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="14">
         <f t="shared" si="3"/>
         <v>82.736950609226639</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="14">
         <f t="shared" si="1"/>
         <v>3.0493907733557535E-3</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="14">
         <f t="shared" si="2"/>
         <v>9.2987840886271996E-6</v>
       </c>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="12">
         <v>40</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="11">
         <v>83.58</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="14">
         <f t="shared" si="3"/>
         <v>83.715146987793531</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="14">
         <f t="shared" si="1"/>
         <v>-0.13514698779353296</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="14">
         <f t="shared" si="2"/>
         <v>1.8264708309665346E-2</v>
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="11">
         <v>84.81</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="14">
         <f t="shared" si="3"/>
         <v>84.693343366360438</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="14">
         <f t="shared" si="1"/>
         <v>0.11665663363956469</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="14">
         <f t="shared" si="2"/>
         <v>1.3608770172115616E-2</v>
       </c>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="11">
         <v>85.55</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="14">
         <f t="shared" si="3"/>
         <v>85.67153974492733</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="14">
         <f t="shared" si="1"/>
         <v>-0.12153974492733255</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="14">
         <f t="shared" si="2"/>
         <v>1.4771909597001058E-2</v>
       </c>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="11">
         <v>87.92</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="14">
         <f t="shared" si="3"/>
         <v>86.649736123494222</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="14">
         <f t="shared" si="1"/>
         <v>1.2702638765057799</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="14">
         <f t="shared" si="2"/>
         <v>1.6135703159554913</v>
       </c>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="17">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="11">
         <v>85.47</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="14">
         <f t="shared" si="3"/>
         <v>87.627932502061128</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="14">
         <f t="shared" si="1"/>
         <v>-2.1579325020611293</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="14">
         <f t="shared" si="2"/>
         <v>4.6566726834518057</v>
       </c>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="17">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="12">
         <v>45</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="11">
         <v>90.26</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="14">
         <f t="shared" si="3"/>
         <v>88.606128880628006</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="14">
         <f t="shared" si="1"/>
         <v>1.653871119371999</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="14">
         <f t="shared" si="2"/>
         <v>2.735289679492789</v>
       </c>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="17">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="12">
         <v>46</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="11">
         <v>89.12</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="14">
         <f t="shared" si="3"/>
         <v>89.584325259194912</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="14">
         <f t="shared" si="1"/>
         <v>-0.46432525919490786</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="14">
         <f t="shared" si="2"/>
         <v>0.21559794632641838</v>
       </c>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="12">
         <v>47</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="11">
         <v>88.02</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="14">
         <f t="shared" si="3"/>
         <v>90.562521637761805</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="14">
         <f t="shared" si="1"/>
         <v>-2.5425216377618085</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="14">
         <f t="shared" si="2"/>
         <v>6.464416278486989</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="17">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="12">
         <v>48</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="11">
         <v>90.12</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="14">
         <f t="shared" si="3"/>
         <v>91.540718016328697</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="14">
         <f t="shared" si="1"/>
         <v>-1.4207180163286921</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="14">
         <f t="shared" si="2"/>
         <v>2.0184396819209338</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="12">
         <v>49</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="11">
         <v>91.54</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="14">
         <f t="shared" si="3"/>
         <v>92.518914394895603</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="14">
         <f t="shared" si="1"/>
         <v>-0.97891439489559673</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="14">
         <f t="shared" si="2"/>
         <v>0.95827339253381227</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="12">
         <v>50</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="11">
         <v>88.84</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="14">
         <f t="shared" si="3"/>
         <v>93.497110773462495</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="14">
         <f t="shared" si="1"/>
         <v>-4.6571107734624917</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="14">
         <f t="shared" si="2"/>
         <v>21.688680756300407</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="11"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="8"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="11"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="8"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G59" s="4"/>
     </row>
   </sheetData>
